--- a/source_data_old/49_data.xlsx
+++ b/source_data_old/49_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step3_NewData\_Formatted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF3F1CB-7F06-4932-B375-13585D8591E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7061229B-FB5C-44F6-B262-E8B16EA82AA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="203">
   <si>
     <t>SDG_REGION</t>
   </si>
@@ -639,13 +639,16 @@
   </si>
   <si>
     <t>Proportion of women and girls aged 15 years and older subjected to sexual violence by persons other than an intimate partner, since age 15</t>
+  </si>
+  <si>
+    <t>b51531fc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,6 +788,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS Sans Serif"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1129,7 +1137,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1138,6 +1146,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1496,18 +1507,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="76.140625" style="2" customWidth="1"/>
     <col min="6" max="10" width="9.140625" style="1"/>
     <col min="11" max="11" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1525,20 +1536,20 @@
     <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>195</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1614,17 +1625,20 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="60">
       <c r="A2" s="1">
         <v>49</v>
       </c>
       <c r="B2" s="1">
         <v>49</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F2" s="1">
@@ -1691,17 +1705,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="60">
       <c r="A3" s="1">
         <v>49</v>
       </c>
       <c r="B3" s="1">
         <v>49</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F3" s="1">
@@ -1771,17 +1788,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="60">
       <c r="A4" s="1">
         <v>49</v>
       </c>
       <c r="B4" s="1">
         <v>49</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="1">
@@ -1848,17 +1868,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="60">
       <c r="A5" s="1">
         <v>49</v>
       </c>
       <c r="B5" s="1">
         <v>49</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F5" s="1">
@@ -1925,17 +1948,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="60">
       <c r="A6" s="1">
         <v>49</v>
       </c>
       <c r="B6" s="1">
         <v>49</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F6" s="1">
@@ -2002,17 +2028,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="60">
       <c r="A7" s="1">
         <v>49</v>
       </c>
       <c r="B7" s="1">
         <v>49</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F7" s="1">
@@ -2079,17 +2108,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="60">
       <c r="A8" s="1">
         <v>49</v>
       </c>
       <c r="B8" s="1">
         <v>49</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F8" s="1">
@@ -2156,17 +2188,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="60">
       <c r="A9" s="1">
         <v>49</v>
       </c>
       <c r="B9" s="1">
         <v>49</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F9" s="1">
@@ -2239,17 +2274,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="60">
       <c r="A10" s="1">
         <v>49</v>
       </c>
       <c r="B10" s="1">
         <v>49</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F10" s="1">
@@ -2316,17 +2354,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="60">
       <c r="A11" s="1">
         <v>49</v>
       </c>
       <c r="B11" s="1">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F11" s="1">
@@ -2393,17 +2434,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="60">
       <c r="A12" s="1">
         <v>49</v>
       </c>
       <c r="B12" s="1">
         <v>49</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="D12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F12" s="1">
@@ -2470,17 +2514,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="60">
       <c r="A13" s="1">
         <v>49</v>
       </c>
       <c r="B13" s="1">
         <v>49</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F13" s="1">
@@ -2547,17 +2594,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="60">
       <c r="A14" s="1">
         <v>49</v>
       </c>
       <c r="B14" s="1">
         <v>49</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F14" s="1">
@@ -2624,17 +2674,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="60">
       <c r="A15" s="1">
         <v>49</v>
       </c>
       <c r="B15" s="1">
         <v>49</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F15" s="1">
@@ -2701,17 +2754,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="60">
       <c r="A16" s="1">
         <v>49</v>
       </c>
       <c r="B16" s="1">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F16" s="1">
@@ -2778,17 +2834,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="60">
       <c r="A17" s="1">
         <v>49</v>
       </c>
       <c r="B17" s="1">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F17" s="1">
@@ -2855,17 +2914,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="60">
       <c r="A18" s="1">
         <v>49</v>
       </c>
       <c r="B18" s="1">
         <v>49</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F18" s="1">
@@ -2935,17 +2997,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="60">
       <c r="A19" s="1">
         <v>49</v>
       </c>
       <c r="B19" s="1">
         <v>49</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F19" s="1">
@@ -3012,17 +3077,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="60">
       <c r="A20" s="1">
         <v>49</v>
       </c>
       <c r="B20" s="1">
         <v>49</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F20" s="1">
@@ -3089,17 +3157,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="60">
       <c r="A21" s="1">
         <v>49</v>
       </c>
       <c r="B21" s="1">
         <v>49</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F21" s="1">
@@ -3166,17 +3237,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="60">
       <c r="A22" s="1">
         <v>49</v>
       </c>
       <c r="B22" s="1">
         <v>49</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F22" s="1">
@@ -3246,17 +3320,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="60">
       <c r="A23" s="1">
         <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>49</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F23" s="1">
@@ -3323,17 +3400,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="60">
       <c r="A24" s="1">
         <v>49</v>
       </c>
       <c r="B24" s="1">
         <v>49</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F24" s="1">
@@ -3400,17 +3480,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="60">
       <c r="A25" s="1">
         <v>49</v>
       </c>
       <c r="B25" s="1">
         <v>49</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F25" s="1">
@@ -3477,17 +3560,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="60">
       <c r="A26" s="1">
         <v>49</v>
       </c>
       <c r="B26" s="1">
         <v>49</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F26" s="1">
@@ -3554,17 +3640,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="60">
       <c r="A27" s="1">
         <v>49</v>
       </c>
       <c r="B27" s="1">
         <v>49</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F27" s="1">
@@ -3631,17 +3720,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="60">
       <c r="A28" s="1">
         <v>49</v>
       </c>
       <c r="B28" s="1">
         <v>49</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F28" s="1">
@@ -3708,17 +3800,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="60">
       <c r="A29" s="1">
         <v>49</v>
       </c>
       <c r="B29" s="1">
         <v>49</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F29" s="1">
@@ -3788,17 +3883,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="60">
       <c r="A30" s="1">
         <v>49</v>
       </c>
       <c r="B30" s="1">
         <v>49</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="D30" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F30" s="1">
@@ -3865,17 +3963,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="60">
       <c r="A31" s="1">
         <v>49</v>
       </c>
       <c r="B31" s="1">
         <v>49</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F31" s="1">
@@ -3945,17 +4046,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="60">
       <c r="A32" s="1">
         <v>49</v>
       </c>
       <c r="B32" s="1">
         <v>49</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="D32" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F32" s="1">
@@ -4022,17 +4126,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="60">
       <c r="A33" s="1">
         <v>49</v>
       </c>
       <c r="B33" s="1">
         <v>49</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="D33" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F33" s="1">
@@ -4102,17 +4209,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="60">
       <c r="A34" s="1">
         <v>49</v>
       </c>
       <c r="B34" s="1">
         <v>49</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F34" s="1">
@@ -4182,17 +4292,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="60">
       <c r="A35" s="1">
         <v>49</v>
       </c>
       <c r="B35" s="1">
         <v>49</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="D35" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F35" s="1">
@@ -4259,17 +4372,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="60">
       <c r="A36" s="1">
         <v>49</v>
       </c>
       <c r="B36" s="1">
         <v>49</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="D36" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F36" s="1">
@@ -4336,17 +4452,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="60">
       <c r="A37" s="1">
         <v>49</v>
       </c>
       <c r="B37" s="1">
         <v>49</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="D37" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F37" s="1">
@@ -4413,17 +4532,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="60">
       <c r="A38" s="1">
         <v>49</v>
       </c>
       <c r="B38" s="1">
         <v>49</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="D38" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F38" s="1">
@@ -4490,17 +4612,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="60">
       <c r="A39" s="1">
         <v>49</v>
       </c>
       <c r="B39" s="1">
         <v>49</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="D39" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F39" s="1">
@@ -4567,17 +4692,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="60">
       <c r="A40" s="1">
         <v>49</v>
       </c>
       <c r="B40" s="1">
         <v>49</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="D40" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F40" s="1">
@@ -4644,17 +4772,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="60">
       <c r="A41" s="1">
         <v>49</v>
       </c>
       <c r="B41" s="1">
         <v>49</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="D41" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F41" s="1">
@@ -4721,17 +4852,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="60">
       <c r="A42" s="1">
         <v>49</v>
       </c>
       <c r="B42" s="1">
         <v>49</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="D42" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F42" s="1">
@@ -4798,17 +4932,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="60">
       <c r="A43" s="1">
         <v>49</v>
       </c>
       <c r="B43" s="1">
         <v>49</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="D43" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F43" s="1">
@@ -4875,17 +5012,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="60">
       <c r="A44" s="1">
         <v>49</v>
       </c>
       <c r="B44" s="1">
         <v>49</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="D44" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F44" s="1">
@@ -4952,17 +5092,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="60">
       <c r="A45" s="1">
         <v>49</v>
       </c>
       <c r="B45" s="1">
         <v>49</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="D45" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F45" s="1">
@@ -5029,17 +5172,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="60">
       <c r="A46" s="1">
         <v>49</v>
       </c>
       <c r="B46" s="1">
         <v>49</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="D46" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F46" s="1">
@@ -5106,17 +5252,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="60">
       <c r="A47" s="1">
         <v>49</v>
       </c>
       <c r="B47" s="1">
         <v>49</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="D47" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F47" s="1">
@@ -5183,17 +5332,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="60">
       <c r="A48" s="1">
         <v>49</v>
       </c>
       <c r="B48" s="1">
         <v>49</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="D48" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F48" s="1">
@@ -5260,17 +5412,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="60">
       <c r="A49" s="1">
         <v>49</v>
       </c>
       <c r="B49" s="1">
         <v>49</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="D49" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F49" s="1">
@@ -5337,17 +5492,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="60">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>49</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="D50" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F50" s="1">
@@ -5414,17 +5572,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="60">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>49</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="D51" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F51" s="1">
@@ -5491,17 +5652,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="60">
       <c r="A52" s="1">
         <v>49</v>
       </c>
       <c r="B52" s="1">
         <v>49</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="D52" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F52" s="1">
@@ -5568,17 +5732,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="60">
       <c r="A53" s="1">
         <v>49</v>
       </c>
       <c r="B53" s="1">
         <v>49</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="D53" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F53" s="1">
@@ -5645,17 +5812,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="60">
       <c r="A54" s="1">
         <v>49</v>
       </c>
       <c r="B54" s="1">
         <v>49</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="D54" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F54" s="1">
@@ -5722,17 +5892,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="60">
       <c r="A55" s="1">
         <v>49</v>
       </c>
       <c r="B55" s="1">
         <v>49</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="D55" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F55" s="1">
@@ -5799,17 +5972,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="60">
       <c r="A56" s="1">
         <v>49</v>
       </c>
       <c r="B56" s="1">
         <v>49</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="D56" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F56" s="1">
@@ -5876,17 +6052,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="60">
       <c r="A57" s="1">
         <v>49</v>
       </c>
       <c r="B57" s="1">
         <v>49</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="D57" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F57" s="1">
@@ -5953,17 +6132,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="60">
       <c r="A58" s="1">
         <v>49</v>
       </c>
       <c r="B58" s="1">
         <v>49</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="D58" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F58" s="1">
@@ -6030,17 +6212,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="60">
       <c r="A59" s="1">
         <v>49</v>
       </c>
       <c r="B59" s="1">
         <v>49</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="D59" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F59" s="1">
@@ -6107,17 +6292,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="60">
       <c r="A60" s="1">
         <v>49</v>
       </c>
       <c r="B60" s="1">
         <v>49</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="D60" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F60" s="1">
@@ -6184,17 +6372,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="60">
       <c r="A61" s="1">
         <v>49</v>
       </c>
       <c r="B61" s="1">
         <v>49</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="D61" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F61" s="1">
@@ -6261,17 +6452,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="60">
       <c r="A62" s="1">
         <v>49</v>
       </c>
       <c r="B62" s="1">
         <v>49</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="D62" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F62" s="1">
@@ -6338,17 +6532,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="60">
       <c r="A63" s="1">
         <v>49</v>
       </c>
       <c r="B63" s="1">
         <v>49</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="D63" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F63" s="1">
@@ -6415,17 +6612,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="60">
       <c r="A64" s="1">
         <v>49</v>
       </c>
       <c r="B64" s="1">
         <v>49</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="D64" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F64" s="1">
@@ -6492,17 +6692,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" ht="60">
       <c r="A65" s="1">
         <v>49</v>
       </c>
       <c r="B65" s="1">
         <v>49</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="D65" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F65" s="1">
@@ -6569,17 +6772,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" ht="60">
       <c r="A66" s="1">
         <v>49</v>
       </c>
       <c r="B66" s="1">
         <v>49</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="D66" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F66" s="1">
@@ -6646,17 +6852,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" ht="60">
       <c r="A67" s="1">
         <v>49</v>
       </c>
       <c r="B67" s="1">
         <v>49</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="D67" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F67" s="1">
@@ -6723,17 +6932,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" ht="60">
       <c r="A68" s="1">
         <v>49</v>
       </c>
       <c r="B68" s="1">
         <v>49</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="D68" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F68" s="1">
@@ -6800,17 +7012,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" ht="60">
       <c r="A69" s="1">
         <v>49</v>
       </c>
       <c r="B69" s="1">
         <v>49</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="D69" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F69" s="1">
@@ -6880,17 +7095,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" ht="60">
       <c r="A70" s="1">
         <v>49</v>
       </c>
       <c r="B70" s="1">
         <v>49</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="D70" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F70" s="1">
@@ -6957,17 +7175,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" ht="60">
       <c r="A71" s="1">
         <v>49</v>
       </c>
       <c r="B71" s="1">
         <v>49</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="D71" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F71" s="1">
@@ -7034,17 +7255,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" ht="60">
       <c r="A72" s="1">
         <v>49</v>
       </c>
       <c r="B72" s="1">
         <v>49</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="D72" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F72" s="1">
@@ -7111,17 +7335,20 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" ht="60">
       <c r="A73" s="1">
         <v>49</v>
       </c>
       <c r="B73" s="1">
         <v>49</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="D73" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>201</v>
       </c>
       <c r="F73" s="1">
@@ -7207,15 +7434,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -7438,6 +7656,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BA0507E-BEDD-404D-A969-99C7535F08A6}">
   <ds:schemaRefs>
@@ -7456,14 +7683,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B629CD0-E5EF-4AF0-8E29-670329C3BFDB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9745EB-8FB7-430A-A615-3D6A1A0A8EEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7480,4 +7699,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B629CD0-E5EF-4AF0-8E29-670329C3BFDB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>